--- a/Data/Analysis page for Kunle.xlsx
+++ b/Data/Analysis page for Kunle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="IITA " sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Combine Emerald Table'!$D$1:$D$72</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Combine Omo Table '!$D$1:$D$63</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'COMBINED EMERALD'!$B$4:$M$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'COMBINED EMERALD'!$B$1:$M$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'COMBINED IITA'!$C$3:$O$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'COMBINED OMO'!$D$5:$P$67</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'Elephant vegetation'!$A$1:$C$54</definedName>
@@ -7314,8 +7314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -37350,10 +37350,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:M76"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -37370,94 +37370,241 @@
     <col min="12" max="13" width="12.85546875"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="10">
+        <v>12.8</v>
+      </c>
+      <c r="F2">
+        <f>E2/100</f>
+        <v>0.128</v>
+      </c>
+      <c r="G2">
+        <f>((3.142*(F2)^2/4))</f>
+        <v>1.2869631999999999E-2</v>
+      </c>
+      <c r="H2">
+        <f>(G2/426.47)*100</f>
+        <v>3.0177109761530701E-3</v>
+      </c>
+      <c r="I2">
+        <f>C2/507</f>
+        <v>1.9723865877712033E-3</v>
+      </c>
+      <c r="J2">
+        <f>LN(I2)</f>
+        <v>-6.2285110035911835</v>
+      </c>
+      <c r="K2">
+        <f>I2*J2</f>
+        <v>-1.2285031565268606E-2</v>
+      </c>
+      <c r="L2">
+        <f>C2/507*100</f>
+        <v>0.19723865877712032</v>
+      </c>
+      <c r="M2">
+        <f>H2/2</f>
+        <v>1.5088554880765351E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="10">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="10">
+        <v>93.8</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F34" si="0">E3/100</f>
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G34" si="1">((3.142*(F3)^2/4))</f>
+        <v>0.6911174619999999</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H34" si="2">(G3/426.47)*100</f>
+        <v>0.16205535254531384</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I34" si="3">C3/507</f>
+        <v>7.889546351084813E-3</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J34" si="4">LN(I3)</f>
+        <v>-4.8422166424712927</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K34" si="5">I3*J3</f>
+        <v>-3.820289264277154E-2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L34" si="6">C3/507*100</f>
+        <v>0.78895463510848129</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M34" si="7">H3/2</f>
+        <v>8.1027676272656918E-2</v>
+      </c>
+    </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="A4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="10">
         <v>4</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" t="s">
-        <v>177</v>
-      </c>
-      <c r="M4" t="s">
-        <v>178</v>
+      <c r="D4" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" s="10">
+        <v>109.7</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1.097</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.94527776949999998</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.221651644781579</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>7.889546351084813E-3</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>-4.8422166424712927</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>-3.820289264277154E-2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="6"/>
+        <v>0.78895463510848129</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="7"/>
+        <v>0.1108258223907895</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="10" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c r="E5" s="10">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F5">
-        <f>E5/100</f>
-        <v>0.128</v>
+        <f t="shared" si="0"/>
+        <v>0.126</v>
       </c>
       <c r="G5">
-        <f>((3.142*(F5)^2/4))</f>
-        <v>1.2869631999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.2470598000000001E-2</v>
       </c>
       <c r="H5">
-        <f>(G5/426.47)*100</f>
-        <v>3.0177109761530701E-3</v>
+        <f t="shared" si="2"/>
+        <v>2.9241442539920744E-3</v>
       </c>
       <c r="I5">
-        <f>C5/507</f>
+        <f t="shared" si="3"/>
         <v>1.9723865877712033E-3</v>
       </c>
       <c r="J5">
-        <f>LN(I5)</f>
+        <f t="shared" si="4"/>
         <v>-6.2285110035911835</v>
       </c>
       <c r="K5">
-        <f>I5*J5</f>
+        <f t="shared" si="5"/>
         <v>-1.2285031565268606E-2</v>
       </c>
       <c r="L5">
-        <f>C5/507*100</f>
+        <f t="shared" si="6"/>
         <v>0.19723865877712032</v>
       </c>
       <c r="M5">
-        <f>H5/2</f>
-        <v>1.5088554880765351E-3</v>
+        <f t="shared" si="7"/>
+        <v>1.4620721269960372E-3</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -37465,538 +37612,538 @@
         <v>12</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>257</v>
+        <v>13</v>
       </c>
       <c r="C6" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="E6" s="10">
-        <v>93.8</v>
+        <v>104.5</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F37" si="0">E6/100</f>
-        <v>0.93799999999999994</v>
+        <f t="shared" si="0"/>
+        <v>1.0449999999999999</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G37" si="1">((3.142*(F6)^2/4))</f>
-        <v>0.6911174619999999</v>
+        <f t="shared" si="1"/>
+        <v>0.85778563749999981</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H37" si="2">(G6/426.47)*100</f>
-        <v>0.16205535254531384</v>
+        <f t="shared" si="2"/>
+        <v>0.20113622001547582</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I37" si="3">C6/507</f>
-        <v>7.889546351084813E-3</v>
+        <f t="shared" si="3"/>
+        <v>9.8619329388560158E-3</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J37" si="4">LN(I6)</f>
-        <v>-4.8422166424712927</v>
+        <f t="shared" si="4"/>
+        <v>-4.619073091157083</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K37" si="5">I6*J6</f>
-        <v>-3.820289264277154E-2</v>
+        <f t="shared" si="5"/>
+        <v>-4.5552989064665511E-2</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:L37" si="6">C6/507*100</f>
-        <v>0.78895463510848129</v>
+        <f t="shared" si="6"/>
+        <v>0.98619329388560162</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M37" si="7">H6/2</f>
-        <v>8.1027676272656918E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.10056811000773791</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="C7" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E7" s="10">
-        <v>109.7</v>
+        <v>149.1</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>1.097</v>
+        <v>1.4909999999999999</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>0.94527776949999998</v>
+        <v>1.7462301254999997</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>0.221651644781579</v>
+        <v>0.40946142178816786</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>7.889546351084813E-3</v>
+        <v>9.8619329388560158E-3</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>-4.8422166424712927</v>
+        <v>-4.619073091157083</v>
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
-        <v>-3.820289264277154E-2</v>
+        <v>-4.5552989064665511E-2</v>
       </c>
       <c r="L7">
         <f t="shared" si="6"/>
-        <v>0.78895463510848129</v>
+        <v>0.98619329388560162</v>
       </c>
       <c r="M7">
         <f t="shared" si="7"/>
-        <v>0.1108258223907895</v>
+        <v>0.20473071089408393</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="10" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="C8" s="10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E8" s="10">
-        <v>12.6</v>
+        <v>138.4</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>0.126</v>
+        <v>1.3840000000000001</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>1.2470598000000001E-2</v>
+        <v>1.5045906880000002</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>2.9241442539920744E-3</v>
+        <v>0.35280106173939552</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>1.9723865877712033E-3</v>
+        <v>1.7751479289940829E-2</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>-6.2285110035911835</v>
+        <v>-4.0312864262549635</v>
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
-        <v>-1.2285031565268606E-2</v>
+        <v>-7.1561297507484564E-2</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>0.19723865877712032</v>
+        <v>1.7751479289940828</v>
       </c>
       <c r="M8">
         <f t="shared" si="7"/>
-        <v>1.4620721269960372E-3</v>
+        <v>0.17640053086969776</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>13</v>
+        <v>242</v>
       </c>
       <c r="C9" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E9" s="10">
-        <v>104.5</v>
+        <v>160.5</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>1.0449999999999999</v>
+        <v>1.605</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>0.85778563749999981</v>
+        <v>2.0234676375</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>0.20113622001547582</v>
+        <v>0.47446892806059038</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>9.8619329388560158E-3</v>
+        <v>1.3806706114398421E-2</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>-4.619073091157083</v>
+        <v>-4.28260085453587</v>
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
-        <v>-4.5552989064665511E-2</v>
+        <v>-5.91286114038483E-2</v>
       </c>
       <c r="L9">
         <f t="shared" si="6"/>
-        <v>0.98619329388560162</v>
+        <v>1.3806706114398422</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
-        <v>0.10056811000773791</v>
+        <v>0.23723446403029519</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="10" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="C10" s="10">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E10" s="10">
-        <v>149.1</v>
+        <v>231.7</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>1.4909999999999999</v>
+        <v>2.3169999999999997</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>1.7462301254999997</v>
+        <v>4.2169481094999988</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>0.40946142178816786</v>
+        <v>0.98880298954205414</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>9.8619329388560158E-3</v>
+        <v>2.7613412228796843E-2</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>-4.619073091157083</v>
+        <v>-3.5894536739759246</v>
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
-        <v>-4.5552989064665511E-2</v>
+        <v>-9.9117063975666553E-2</v>
       </c>
       <c r="L10">
         <f t="shared" si="6"/>
-        <v>0.98619329388560162</v>
+        <v>2.7613412228796843</v>
       </c>
       <c r="M10">
         <f t="shared" si="7"/>
-        <v>0.20473071089408393</v>
+        <v>0.49440149477102707</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="10" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
       <c r="C11" s="10">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E11" s="10">
-        <v>138.4</v>
+        <v>54.2</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>1.3840000000000001</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>1.5045906880000002</v>
+        <v>0.23075162200000002</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>0.35280106173939552</v>
+        <v>5.4107351513588295E-2</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>1.7751479289940829E-2</v>
+        <v>5.9171597633136093E-3</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>-4.0312864262549635</v>
+        <v>-5.1298987149230735</v>
       </c>
       <c r="K11">
         <f t="shared" si="5"/>
-        <v>-7.1561297507484564E-2</v>
+        <v>-3.0354430265817002E-2</v>
       </c>
       <c r="L11">
         <f t="shared" si="6"/>
-        <v>1.7751479289940828</v>
+        <v>0.59171597633136097</v>
       </c>
       <c r="M11">
         <f t="shared" si="7"/>
-        <v>0.17640053086969776</v>
+        <v>2.7053675756794147E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="C12" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E12" s="10">
-        <v>160.5</v>
+        <v>87.8</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>1.605</v>
+        <v>0.878</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>2.0234676375</v>
+        <v>0.60552938199999995</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>0.47446892806059038</v>
+        <v>0.14198639576054586</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>1.3806706114398421E-2</v>
+        <v>5.9171597633136093E-3</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>-4.28260085453587</v>
+        <v>-5.1298987149230735</v>
       </c>
       <c r="K12">
         <f t="shared" si="5"/>
-        <v>-5.91286114038483E-2</v>
+        <v>-3.0354430265817002E-2</v>
       </c>
       <c r="L12">
         <f t="shared" si="6"/>
-        <v>1.3806706114398422</v>
+        <v>0.59171597633136097</v>
       </c>
       <c r="M12">
         <f t="shared" si="7"/>
-        <v>0.23723446403029519</v>
+        <v>7.0993197880272932E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="10" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="C13" s="10">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E13" s="10">
-        <v>231.7</v>
+        <v>25.3</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>2.3169999999999997</v>
+        <v>0.253</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>4.2169481094999988</v>
+        <v>5.0279069499999995E-2</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>0.98880298954205414</v>
+        <v>1.1789591178746452E-2</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>2.7613412228796843E-2</v>
+        <v>3.9447731755424065E-3</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>-3.5894536739759246</v>
+        <v>-5.5353638230312381</v>
       </c>
       <c r="K13">
         <f t="shared" si="5"/>
-        <v>-9.9117063975666553E-2</v>
+        <v>-2.1835754725961491E-2</v>
       </c>
       <c r="L13">
         <f t="shared" si="6"/>
-        <v>2.7613412228796843</v>
+        <v>0.39447731755424065</v>
       </c>
       <c r="M13">
         <f t="shared" si="7"/>
-        <v>0.49440149477102707</v>
+        <v>5.894795589373226E-3</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="10" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="C14" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E14" s="10">
-        <v>54.2</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>0.54200000000000004</v>
+        <v>0.16399999999999998</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>0.23075162200000002</v>
+        <v>2.1126807999999993E-2</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>5.4107351513588295E-2</v>
+        <v>4.9538790536262792E-3</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>5.9171597633136093E-3</v>
+        <v>1.9723865877712033E-3</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>-5.1298987149230735</v>
+        <v>-6.2285110035911835</v>
       </c>
       <c r="K14">
         <f t="shared" si="5"/>
-        <v>-3.0354430265817002E-2</v>
+        <v>-1.2285031565268606E-2</v>
       </c>
       <c r="L14">
         <f t="shared" si="6"/>
-        <v>0.59171597633136097</v>
+        <v>0.19723865877712032</v>
       </c>
       <c r="M14">
         <f t="shared" si="7"/>
-        <v>2.7053675756794147E-2</v>
+        <v>2.4769395268131396E-3</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="10" t="s">
-        <v>24</v>
+      <c r="A15" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="10">
-        <v>3</v>
+        <v>194</v>
+      </c>
+      <c r="C15" s="14">
+        <v>12</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E15" s="10">
-        <v>87.8</v>
+        <v>453.5</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>0.878</v>
+        <v>4.5350000000000001</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>0.60552938199999995</v>
+        <v>16.154769737500001</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>0.14198639576054586</v>
+        <v>3.78802019778648</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>5.9171597633136093E-3</v>
+        <v>2.3668639053254437E-2</v>
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>-5.1298987149230735</v>
+        <v>-3.7436043538031827</v>
       </c>
       <c r="K15">
         <f t="shared" si="5"/>
-        <v>-3.0354430265817002E-2</v>
+        <v>-8.8606020208359351E-2</v>
       </c>
       <c r="L15">
         <f t="shared" si="6"/>
-        <v>0.59171597633136097</v>
+        <v>2.3668639053254439</v>
       </c>
       <c r="M15">
         <f t="shared" si="7"/>
-        <v>7.0993197880272932E-2</v>
+        <v>1.89401009889324</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C16" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E16" s="10">
-        <v>25.3</v>
+        <v>13</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>0.253</v>
+        <v>0.13</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>5.0279069499999995E-2</v>
+        <v>1.3274950000000001E-2</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>1.1789591178746452E-2</v>
+        <v>3.1127511900016416E-3</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>3.9447731755424065E-3</v>
+        <v>1.9723865877712033E-3</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>-5.5353638230312381</v>
+        <v>-6.2285110035911835</v>
       </c>
       <c r="K16">
         <f t="shared" si="5"/>
-        <v>-2.1835754725961491E-2</v>
+        <v>-1.2285031565268606E-2</v>
       </c>
       <c r="L16">
         <f t="shared" si="6"/>
-        <v>0.39447731755424065</v>
+        <v>0.19723865877712032</v>
       </c>
       <c r="M16">
         <f t="shared" si="7"/>
-        <v>5.894795589373226E-3</v>
+        <v>1.5563755950008208E-3</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -38004,589 +38151,589 @@
         <v>99</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>201</v>
+        <v>129</v>
       </c>
       <c r="C17" s="10">
-        <v>1</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>258</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D17" s="10"/>
       <c r="E17" s="10">
-        <v>16.399999999999999</v>
+        <v>659.7</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>0.16399999999999998</v>
+        <v>6.5970000000000004</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>2.1126807999999993E-2</v>
+        <v>34.185281269500003</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>4.9538790536262792E-3</v>
+        <v>8.0158701126691216</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>1.9723865877712033E-3</v>
+        <v>3.3530571992110451E-2</v>
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>-6.2285110035911835</v>
+        <v>-3.3952976595349673</v>
       </c>
       <c r="K17">
         <f t="shared" si="5"/>
-        <v>-1.2285031565268606E-2</v>
+        <v>-0.11384627260768135</v>
       </c>
       <c r="L17">
         <f t="shared" si="6"/>
-        <v>0.19723865877712032</v>
+        <v>3.3530571992110452</v>
       </c>
       <c r="M17">
         <f t="shared" si="7"/>
-        <v>2.4769395268131396E-3</v>
+        <v>4.0079350563345608</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="14" t="s">
-        <v>159</v>
+      <c r="A18" s="10" t="s">
+        <v>245</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" s="14">
-        <v>12</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>258</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10"/>
       <c r="E18" s="10">
-        <v>453.5</v>
+        <v>11.6</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>4.5350000000000001</v>
+        <v>0.11599999999999999</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>16.154769737500001</v>
+        <v>1.0569687999999997E-2</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>3.78802019778648</v>
+        <v>2.4784130185007145E-3</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>2.3668639053254437E-2</v>
+        <v>1.9723865877712033E-3</v>
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>-3.7436043538031827</v>
+        <v>-6.2285110035911835</v>
       </c>
       <c r="K18">
         <f t="shared" si="5"/>
-        <v>-8.8606020208359351E-2</v>
+        <v>-1.2285031565268606E-2</v>
       </c>
       <c r="L18">
         <f t="shared" si="6"/>
-        <v>2.3668639053254439</v>
+        <v>0.19723865877712032</v>
       </c>
       <c r="M18">
         <f t="shared" si="7"/>
-        <v>1.89401009889324</v>
+        <v>1.2392065092503572E-3</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="10" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="C19" s="10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E19" s="10">
-        <v>13</v>
+        <v>198.6</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>0.13</v>
+        <v>1.986</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>1.3274950000000001E-2</v>
+        <v>3.0981659579999996</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>3.1127511900016416E-3</v>
+        <v>0.72646750252069303</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>1.9723865877712033E-3</v>
+        <v>2.9585798816568046E-2</v>
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
-        <v>-6.2285110035911835</v>
+        <v>-3.520460802488973</v>
       </c>
       <c r="K19">
         <f t="shared" si="5"/>
-        <v>-1.2285031565268606E-2</v>
+        <v>-0.10415564504405245</v>
       </c>
       <c r="L19">
         <f t="shared" si="6"/>
-        <v>0.19723865877712032</v>
+        <v>2.9585798816568047</v>
       </c>
       <c r="M19">
         <f t="shared" si="7"/>
-        <v>1.5563755950008208E-3</v>
+        <v>0.36323375126034652</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="10" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="C20" s="10">
-        <v>17</v>
-      </c>
-      <c r="D20" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="E20" s="10">
-        <v>659.7</v>
+        <v>598.4</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>6.5970000000000004</v>
+        <v>5.984</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>34.185281269500003</v>
+        <v>28.127385088</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>8.0158701126691216</v>
+        <v>6.5953959453185451</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>3.3530571992110451E-2</v>
+        <v>7.2978303747534515E-2</v>
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
-        <v>-3.3952976595349673</v>
+        <v>-2.6175930909469587</v>
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
-        <v>-0.11384627260768135</v>
+        <v>-0.19102750367857488</v>
       </c>
       <c r="L20">
         <f t="shared" si="6"/>
-        <v>3.3530571992110452</v>
+        <v>7.2978303747534516</v>
       </c>
       <c r="M20">
         <f t="shared" si="7"/>
-        <v>4.0079350563345608</v>
+        <v>3.2976979726592726</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="10" t="s">
-        <v>245</v>
+        <v>17</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="C21" s="10">
-        <v>1</v>
-      </c>
-      <c r="D21" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>181</v>
+      </c>
       <c r="E21" s="10">
-        <v>11.6</v>
+        <v>67.8</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>0.11599999999999999</v>
+        <v>0.67799999999999994</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>1.0569687999999997E-2</v>
+        <v>0.36108178199999991</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>2.4784130185007145E-3</v>
+        <v>8.4667569113888411E-2</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>1.9723865877712033E-3</v>
+        <v>3.9447731755424065E-3</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
-        <v>-6.2285110035911835</v>
+        <v>-5.5353638230312381</v>
       </c>
       <c r="K21">
         <f t="shared" si="5"/>
-        <v>-1.2285031565268606E-2</v>
+        <v>-2.1835754725961491E-2</v>
       </c>
       <c r="L21">
         <f t="shared" si="6"/>
-        <v>0.19723865877712032</v>
+        <v>0.39447731755424065</v>
       </c>
       <c r="M21">
         <f t="shared" si="7"/>
-        <v>1.2392065092503572E-3</v>
+        <v>4.2333784556944205E-2</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>100</v>
+        <v>24</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>228</v>
       </c>
       <c r="C22" s="10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E22" s="10">
-        <v>198.6</v>
+        <v>10</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>1.986</v>
+        <v>0.1</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>3.0981659579999996</v>
+        <v>7.8550000000000009E-3</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>0.72646750252069303</v>
+        <v>1.841864609468427E-3</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>2.9585798816568046E-2</v>
+        <v>1.9723865877712033E-3</v>
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
-        <v>-3.520460802488973</v>
+        <v>-6.2285110035911835</v>
       </c>
       <c r="K22">
         <f t="shared" si="5"/>
-        <v>-0.10415564504405245</v>
+        <v>-1.2285031565268606E-2</v>
       </c>
       <c r="L22">
         <f t="shared" si="6"/>
-        <v>2.9585798816568047</v>
+        <v>0.19723865877712032</v>
       </c>
       <c r="M22">
         <f t="shared" si="7"/>
-        <v>0.36323375126034652</v>
+        <v>9.2093230473421351E-4</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="C23" s="10">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E23" s="10">
-        <v>598.4</v>
+        <v>55.2</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>5.984</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>28.127385088</v>
+        <v>0.23934499200000001</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>6.5953959453185451</v>
+        <v>5.6122351396346748E-2</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>7.2978303747534515E-2</v>
+        <v>5.9171597633136093E-3</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
-        <v>-2.6175930909469587</v>
+        <v>-5.1298987149230735</v>
       </c>
       <c r="K23">
         <f t="shared" si="5"/>
-        <v>-0.19102750367857488</v>
+        <v>-3.0354430265817002E-2</v>
       </c>
       <c r="L23">
         <f t="shared" si="6"/>
-        <v>7.2978303747534516</v>
+        <v>0.59171597633136097</v>
       </c>
       <c r="M23">
         <f t="shared" si="7"/>
-        <v>3.2976979726592726</v>
+        <v>2.8061175698173374E-2</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="10" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c r="C24" s="10">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="E24" s="10">
-        <v>67.8</v>
+        <v>996.8</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>0.67799999999999994</v>
+        <v>9.968</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>0.36108178199999991</v>
+        <v>78.048084352000004</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>8.4667569113888411E-2</v>
+        <v>18.3009553666143</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>3.9447731755424065E-3</v>
+        <v>0.11637080867850098</v>
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
-        <v>-5.5353638230312381</v>
+        <v>-2.1509735596854638</v>
       </c>
       <c r="K24">
         <f t="shared" si="5"/>
-        <v>-2.1835754725961491E-2</v>
+        <v>-0.2503105325866713</v>
       </c>
       <c r="L24">
         <f t="shared" si="6"/>
-        <v>0.39447731755424065</v>
+        <v>11.637080867850099</v>
       </c>
       <c r="M24">
         <f t="shared" si="7"/>
-        <v>4.2333784556944205E-2</v>
+        <v>9.1504776833071499</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>228</v>
+        <v>31</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="C25" s="10">
-        <v>1</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>258</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D25" s="10"/>
       <c r="E25" s="10">
-        <v>10</v>
+        <v>512.4</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>5.1239999999999997</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>7.8550000000000009E-3</v>
+        <v>20.623597847999999</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>1.841864609468427E-3</v>
+        <v>4.8358847862686707</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>1.9723865877712033E-3</v>
+        <v>7.2978303747534515E-2</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
-        <v>-6.2285110035911835</v>
+        <v>-2.6175930909469587</v>
       </c>
       <c r="K25">
         <f t="shared" si="5"/>
-        <v>-1.2285031565268606E-2</v>
+        <v>-0.19102750367857488</v>
       </c>
       <c r="L25">
         <f t="shared" si="6"/>
-        <v>0.19723865877712032</v>
+        <v>7.2978303747534516</v>
       </c>
       <c r="M25">
         <f t="shared" si="7"/>
-        <v>9.2093230473421351E-4</v>
+        <v>2.4179423931343353</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="10" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="C26" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E26" s="10">
-        <v>55.2</v>
+        <v>11.7</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>0.55200000000000005</v>
+        <v>0.11699999999999999</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>0.23934499200000001</v>
+        <v>1.0752709499999999E-2</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>5.6122351396346748E-2</v>
+        <v>2.521328463901329E-3</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>5.9171597633136093E-3</v>
+        <v>1.9723865877712033E-3</v>
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
-        <v>-5.1298987149230735</v>
+        <v>-6.2285110035911835</v>
       </c>
       <c r="K26">
         <f t="shared" si="5"/>
-        <v>-3.0354430265817002E-2</v>
+        <v>-1.2285031565268606E-2</v>
       </c>
       <c r="L26">
         <f t="shared" si="6"/>
-        <v>0.59171597633136097</v>
+        <v>0.19723865877712032</v>
       </c>
       <c r="M26">
         <f t="shared" si="7"/>
-        <v>2.8061175698173374E-2</v>
+        <v>1.2606642319506645E-3</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="10" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C27" s="10">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E27" s="10">
-        <v>996.8</v>
+        <v>100.5</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>9.968</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>78.048084352000004</v>
+        <v>0.79337463749999981</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>18.3009553666143</v>
+        <v>0.18603293021783471</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>0.11637080867850098</v>
+        <v>1.3806706114398421E-2</v>
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
-        <v>-2.1509735596854638</v>
+        <v>-4.28260085453587</v>
       </c>
       <c r="K27">
         <f t="shared" si="5"/>
-        <v>-0.2503105325866713</v>
+        <v>-5.91286114038483E-2</v>
       </c>
       <c r="L27">
         <f t="shared" si="6"/>
-        <v>11.637080867850099</v>
+        <v>1.3806706114398422</v>
       </c>
       <c r="M27">
         <f t="shared" si="7"/>
-        <v>9.1504776833071499</v>
+        <v>9.3016465108917354E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="10" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C28" s="10">
-        <v>37</v>
-      </c>
-      <c r="D28" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="E28" s="10">
-        <v>512.4</v>
+        <v>70.7</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>5.1239999999999997</v>
+        <v>0.70700000000000007</v>
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>20.623597847999999</v>
+        <v>0.39263138950000004</v>
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>4.8358847862686707</v>
+        <v>9.2065418317818365E-2</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>7.2978303747534515E-2</v>
+        <v>1.3806706114398421E-2</v>
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
-        <v>-2.6175930909469587</v>
+        <v>-4.28260085453587</v>
       </c>
       <c r="K28">
         <f t="shared" si="5"/>
-        <v>-0.19102750367857488</v>
+        <v>-5.91286114038483E-2</v>
       </c>
       <c r="L28">
         <f t="shared" si="6"/>
-        <v>7.2978303747534516</v>
+        <v>1.3806706114398422</v>
       </c>
       <c r="M28">
         <f t="shared" si="7"/>
-        <v>2.4179423931343353</v>
+        <v>4.6032709158909182E-2</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="10" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>229</v>
+        <v>110</v>
       </c>
       <c r="C29" s="10">
         <v>1</v>
@@ -38595,19 +38742,19 @@
         <v>258</v>
       </c>
       <c r="E29" s="10">
-        <v>11.7</v>
+        <v>14.2</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>0.11699999999999999</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>1.0752709499999999E-2</v>
+        <v>1.5838821999999999E-2</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>2.521328463901329E-3</v>
+        <v>3.7139357985321356E-3</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
@@ -38627,350 +38774,350 @@
       </c>
       <c r="M29">
         <f t="shared" si="7"/>
-        <v>1.2606642319506645E-3</v>
+        <v>1.8569678992660678E-3</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="10" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="C30" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>258</v>
+        <v>181</v>
       </c>
       <c r="E30" s="10">
-        <v>100.5</v>
+        <v>20.8</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>1.0049999999999999</v>
+        <v>0.20800000000000002</v>
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>0.79337463749999981</v>
+        <v>3.3983872000000005E-2</v>
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>0.18603293021783471</v>
+        <v>7.9686430464042026E-3</v>
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
-        <v>1.3806706114398421E-2</v>
+        <v>1.9723865877712033E-3</v>
       </c>
       <c r="J30">
         <f t="shared" si="4"/>
-        <v>-4.28260085453587</v>
+        <v>-6.2285110035911835</v>
       </c>
       <c r="K30">
         <f t="shared" si="5"/>
-        <v>-5.91286114038483E-2</v>
+        <v>-1.2285031565268606E-2</v>
       </c>
       <c r="L30">
         <f t="shared" si="6"/>
-        <v>1.3806706114398422</v>
+        <v>0.19723865877712032</v>
       </c>
       <c r="M30">
         <f t="shared" si="7"/>
-        <v>9.3016465108917354E-2</v>
+        <v>3.9843215232021013E-3</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="10" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="C31" s="10">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E31" s="10">
-        <v>70.7</v>
+        <v>445.7</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>0.70700000000000007</v>
+        <v>4.4569999999999999</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>0.39263138950000004</v>
+        <v>15.603838889499999</v>
       </c>
       <c r="H31">
         <f t="shared" si="2"/>
-        <v>9.2065418317818365E-2</v>
+        <v>3.6588362345534269</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
-        <v>1.3806706114398421E-2</v>
+        <v>3.7475345167652857E-2</v>
       </c>
       <c r="J31">
         <f t="shared" si="4"/>
-        <v>-4.28260085453587</v>
+        <v>-3.2840720244247428</v>
       </c>
       <c r="K31">
         <f t="shared" si="5"/>
-        <v>-5.91286114038483E-2</v>
+        <v>-0.12307173267074972</v>
       </c>
       <c r="L31">
         <f t="shared" si="6"/>
-        <v>1.3806706114398422</v>
+        <v>3.7475345167652856</v>
       </c>
       <c r="M31">
         <f t="shared" si="7"/>
-        <v>4.6032709158909182E-2</v>
+        <v>1.8294181172767134</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="10" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="C32" s="10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E32" s="10">
-        <v>14.2</v>
+        <v>185.4</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>0.14199999999999999</v>
+        <v>1.8540000000000001</v>
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>1.5838821999999999E-2</v>
+        <v>2.7000117180000003</v>
       </c>
       <c r="H32">
         <f t="shared" si="2"/>
-        <v>3.7139357985321356E-3</v>
+        <v>0.63310706919595749</v>
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
-        <v>1.9723865877712033E-3</v>
+        <v>2.9585798816568046E-2</v>
       </c>
       <c r="J32">
         <f t="shared" si="4"/>
-        <v>-6.2285110035911835</v>
+        <v>-3.520460802488973</v>
       </c>
       <c r="K32">
         <f t="shared" si="5"/>
-        <v>-1.2285031565268606E-2</v>
+        <v>-0.10415564504405245</v>
       </c>
       <c r="L32">
         <f t="shared" si="6"/>
-        <v>0.19723865877712032</v>
+        <v>2.9585798816568047</v>
       </c>
       <c r="M32">
         <f t="shared" si="7"/>
-        <v>1.8569678992660678E-3</v>
+        <v>0.31655353459797875</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="10" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C33" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="E33" s="10">
-        <v>20.8</v>
+        <v>199.7</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>0.20800000000000002</v>
+        <v>1.9969999999999999</v>
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>3.3983872000000005E-2</v>
+        <v>3.1325810694999996</v>
       </c>
       <c r="H33">
         <f t="shared" si="2"/>
-        <v>7.9686430464042026E-3</v>
+        <v>0.73453726393415708</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
-        <v>1.9723865877712033E-3</v>
+        <v>5.9171597633136093E-3</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>-6.2285110035911835</v>
+        <v>-5.1298987149230735</v>
       </c>
       <c r="K33">
         <f t="shared" si="5"/>
-        <v>-1.2285031565268606E-2</v>
+        <v>-3.0354430265817002E-2</v>
       </c>
       <c r="L33">
         <f t="shared" si="6"/>
-        <v>0.19723865877712032</v>
+        <v>0.59171597633136097</v>
       </c>
       <c r="M33">
         <f t="shared" si="7"/>
-        <v>3.9843215232021013E-3</v>
+        <v>0.36726863196707854</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="C34" s="10">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E34" s="10">
-        <v>445.7</v>
+        <v>42.2</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>4.4569999999999999</v>
+        <v>0.42200000000000004</v>
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>15.603838889499999</v>
+        <v>0.13988498200000005</v>
       </c>
       <c r="H34">
         <f t="shared" si="2"/>
-        <v>3.6588362345534269</v>
+        <v>3.2800661711257541E-2</v>
       </c>
       <c r="I34">
         <f t="shared" si="3"/>
-        <v>3.7475345167652857E-2</v>
+        <v>1.9723865877712033E-3</v>
       </c>
       <c r="J34">
         <f t="shared" si="4"/>
-        <v>-3.2840720244247428</v>
+        <v>-6.2285110035911835</v>
       </c>
       <c r="K34">
         <f t="shared" si="5"/>
-        <v>-0.12307173267074972</v>
+        <v>-1.2285031565268606E-2</v>
       </c>
       <c r="L34">
         <f t="shared" si="6"/>
-        <v>3.7475345167652856</v>
+        <v>0.19723865877712032</v>
       </c>
       <c r="M34">
         <f t="shared" si="7"/>
-        <v>1.8294181172767134</v>
+        <v>1.640033085562877E-2</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="10" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="C35" s="10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>258</v>
+        <v>179</v>
       </c>
       <c r="E35" s="10">
-        <v>185.4</v>
+        <v>14.1</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
-        <v>1.8540000000000001</v>
+        <f t="shared" ref="F35:F71" si="8">E35/100</f>
+        <v>0.14099999999999999</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
-        <v>2.7000117180000003</v>
+        <f t="shared" ref="G35:G71" si="9">((3.142*(F35)^2/4))</f>
+        <v>1.5616525499999997E-2</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
-        <v>0.63310706919595749</v>
+        <f t="shared" ref="H35:H71" si="10">(G35/426.47)*100</f>
+        <v>3.6618110300841783E-3</v>
       </c>
       <c r="I35">
-        <f t="shared" si="3"/>
-        <v>2.9585798816568046E-2</v>
+        <f t="shared" ref="I35:I71" si="11">C35/507</f>
+        <v>1.9723865877712033E-3</v>
       </c>
       <c r="J35">
-        <f t="shared" si="4"/>
-        <v>-3.520460802488973</v>
+        <f t="shared" ref="J35:J71" si="12">LN(I35)</f>
+        <v>-6.2285110035911835</v>
       </c>
       <c r="K35">
-        <f t="shared" si="5"/>
-        <v>-0.10415564504405245</v>
+        <f t="shared" ref="K35:K71" si="13">I35*J35</f>
+        <v>-1.2285031565268606E-2</v>
       </c>
       <c r="L35">
-        <f t="shared" si="6"/>
-        <v>2.9585798816568047</v>
+        <f t="shared" ref="L35:L71" si="14">C35/507*100</f>
+        <v>0.19723865877712032</v>
       </c>
       <c r="M35">
-        <f t="shared" si="7"/>
-        <v>0.31655353459797875</v>
+        <f t="shared" ref="M35:M71" si="15">H35/2</f>
+        <v>1.8309055150420891E-3</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="10" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="C36" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E36" s="10">
-        <v>199.7</v>
+        <v>10.4</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
-        <v>1.9969999999999999</v>
+        <f t="shared" si="8"/>
+        <v>0.10400000000000001</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
-        <v>3.1325810694999996</v>
+        <f t="shared" si="9"/>
+        <v>8.4959680000000013E-3</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
-        <v>0.73453726393415708</v>
+        <f t="shared" si="10"/>
+        <v>1.9921607616010507E-3</v>
       </c>
       <c r="I36">
-        <f t="shared" si="3"/>
-        <v>5.9171597633136093E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.9723865877712033E-3</v>
       </c>
       <c r="J36">
-        <f t="shared" si="4"/>
-        <v>-5.1298987149230735</v>
+        <f t="shared" si="12"/>
+        <v>-6.2285110035911835</v>
       </c>
       <c r="K36">
-        <f t="shared" si="5"/>
-        <v>-3.0354430265817002E-2</v>
+        <f t="shared" si="13"/>
+        <v>-1.2285031565268606E-2</v>
       </c>
       <c r="L36">
-        <f t="shared" si="6"/>
-        <v>0.59171597633136097</v>
+        <f t="shared" si="14"/>
+        <v>0.19723865877712032</v>
       </c>
       <c r="M36">
-        <f t="shared" si="7"/>
-        <v>0.36726863196707854</v>
+        <f t="shared" si="15"/>
+        <v>9.9608038080052533E-4</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -38978,175 +39125,173 @@
         <v>21</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C37" s="10">
         <v>1</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>258</v>
+        <v>179</v>
       </c>
       <c r="E37" s="10">
-        <v>42.2</v>
+        <v>11.1</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
-        <v>0.42200000000000004</v>
+        <f t="shared" si="8"/>
+        <v>0.111</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
-        <v>0.13988498200000005</v>
+        <f t="shared" si="9"/>
+        <v>9.6781455000000006E-3</v>
       </c>
       <c r="H37">
-        <f t="shared" si="2"/>
-        <v>3.2800661711257541E-2</v>
+        <f t="shared" si="10"/>
+        <v>2.2693613853260485E-3</v>
       </c>
       <c r="I37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1.9723865877712033E-3</v>
       </c>
       <c r="J37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>-6.2285110035911835</v>
       </c>
       <c r="K37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>-1.2285031565268606E-2</v>
       </c>
       <c r="L37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.19723865877712032</v>
       </c>
       <c r="M37">
-        <f t="shared" si="7"/>
-        <v>1.640033085562877E-2</v>
+        <f t="shared" si="15"/>
+        <v>1.1346806926630243E-3</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="C38" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c r="E38" s="10">
-        <v>14.1</v>
+        <v>43.8</v>
       </c>
       <c r="F38">
-        <f t="shared" ref="F38:F74" si="8">E38/100</f>
-        <v>0.14099999999999999</v>
+        <f t="shared" si="8"/>
+        <v>0.43799999999999994</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38:G74" si="9">((3.142*(F38)^2/4))</f>
-        <v>1.5616525499999997E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.15069346199999997</v>
       </c>
       <c r="H38">
-        <f t="shared" ref="H38:H74" si="10">(G38/426.47)*100</f>
-        <v>3.6618110300841783E-3</v>
+        <f t="shared" si="10"/>
+        <v>3.5335067413886076E-2</v>
       </c>
       <c r="I38">
-        <f t="shared" ref="I38:I74" si="11">C38/507</f>
-        <v>1.9723865877712033E-3</v>
+        <f t="shared" si="11"/>
+        <v>3.9447731755424065E-3</v>
       </c>
       <c r="J38">
-        <f t="shared" ref="J38:J74" si="12">LN(I38)</f>
-        <v>-6.2285110035911835</v>
+        <f t="shared" si="12"/>
+        <v>-5.5353638230312381</v>
       </c>
       <c r="K38">
-        <f t="shared" ref="K38:K74" si="13">I38*J38</f>
-        <v>-1.2285031565268606E-2</v>
+        <f t="shared" si="13"/>
+        <v>-2.1835754725961491E-2</v>
       </c>
       <c r="L38">
-        <f t="shared" ref="L38:L74" si="14">C38/507*100</f>
-        <v>0.19723865877712032</v>
+        <f t="shared" si="14"/>
+        <v>0.39447731755424065</v>
       </c>
       <c r="M38">
-        <f t="shared" ref="M38:M74" si="15">H38/2</f>
-        <v>1.8309055150420891E-3</v>
+        <f t="shared" si="15"/>
+        <v>1.7667533706943038E-2</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="10" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="C39" s="10">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E39" s="10">
-        <v>10.4</v>
+        <v>260.8</v>
       </c>
       <c r="F39">
         <f t="shared" si="8"/>
-        <v>0.10400000000000001</v>
+        <v>2.6080000000000001</v>
       </c>
       <c r="G39">
         <f t="shared" si="9"/>
-        <v>8.4959680000000013E-3</v>
+        <v>5.3427070720000005</v>
       </c>
       <c r="H39">
         <f t="shared" si="10"/>
-        <v>1.9921607616010507E-3</v>
+        <v>1.2527744207095459</v>
       </c>
       <c r="I39">
         <f t="shared" si="11"/>
-        <v>1.9723865877712033E-3</v>
+        <v>3.5502958579881658E-2</v>
       </c>
       <c r="J39">
         <f t="shared" si="12"/>
-        <v>-6.2285110035911835</v>
+        <v>-3.3381392456950185</v>
       </c>
       <c r="K39">
         <f t="shared" si="13"/>
-        <v>-1.2285031565268606E-2</v>
+        <v>-0.11851381937378765</v>
       </c>
       <c r="L39">
         <f t="shared" si="14"/>
-        <v>0.19723865877712032</v>
+        <v>3.5502958579881656</v>
       </c>
       <c r="M39">
         <f t="shared" si="15"/>
-        <v>9.9608038080052533E-4</v>
+        <v>0.62638721035477296</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="10" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="C40" s="10">
         <v>1</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>179</v>
-      </c>
+      <c r="D40" s="10"/>
       <c r="E40" s="10">
-        <v>11.1</v>
+        <v>13.6</v>
       </c>
       <c r="F40">
         <f t="shared" si="8"/>
-        <v>0.111</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="G40">
         <f t="shared" si="9"/>
-        <v>9.6781455000000006E-3</v>
+        <v>1.4528608000000002E-2</v>
       </c>
       <c r="H40">
         <f t="shared" si="10"/>
-        <v>2.2693613853260485E-3</v>
+        <v>3.4067127816728025E-3</v>
       </c>
       <c r="I40">
         <f t="shared" si="11"/>
@@ -39166,181 +39311,181 @@
       </c>
       <c r="M40">
         <f t="shared" si="15"/>
-        <v>1.1346806926630243E-3</v>
+        <v>1.7033563908364013E-3</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="C41" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E41" s="10">
-        <v>43.8</v>
+        <v>76.5</v>
       </c>
       <c r="F41">
         <f t="shared" si="8"/>
-        <v>0.43799999999999994</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="G41">
         <f t="shared" si="9"/>
-        <v>0.15069346199999997</v>
+        <v>0.45969423749999999</v>
       </c>
       <c r="H41">
         <f t="shared" si="10"/>
-        <v>3.5335067413886076E-2</v>
+        <v>0.10779052160761601</v>
       </c>
       <c r="I41">
         <f t="shared" si="11"/>
-        <v>3.9447731755424065E-3</v>
+        <v>5.9171597633136093E-3</v>
       </c>
       <c r="J41">
         <f t="shared" si="12"/>
-        <v>-5.5353638230312381</v>
+        <v>-5.1298987149230735</v>
       </c>
       <c r="K41">
         <f t="shared" si="13"/>
-        <v>-2.1835754725961491E-2</v>
+        <v>-3.0354430265817002E-2</v>
       </c>
       <c r="L41">
         <f t="shared" si="14"/>
-        <v>0.39447731755424065</v>
+        <v>0.59171597633136097</v>
       </c>
       <c r="M41">
         <f t="shared" si="15"/>
-        <v>1.7667533706943038E-2</v>
+        <v>5.3895260803808007E-2</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="C42" s="10">
-        <v>18</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>258</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D42" s="10"/>
       <c r="E42" s="10">
-        <v>260.8</v>
+        <v>15.5</v>
       </c>
       <c r="F42">
         <f t="shared" si="8"/>
-        <v>2.6080000000000001</v>
+        <v>0.155</v>
       </c>
       <c r="G42">
         <f t="shared" si="9"/>
-        <v>5.3427070720000005</v>
+        <v>1.88716375E-2</v>
       </c>
       <c r="H42">
         <f t="shared" si="10"/>
-        <v>1.2527744207095459</v>
+        <v>4.4250797242478953E-3</v>
       </c>
       <c r="I42">
         <f t="shared" si="11"/>
-        <v>3.5502958579881658E-2</v>
+        <v>1.9723865877712033E-3</v>
       </c>
       <c r="J42">
         <f t="shared" si="12"/>
-        <v>-3.3381392456950185</v>
+        <v>-6.2285110035911835</v>
       </c>
       <c r="K42">
         <f t="shared" si="13"/>
-        <v>-0.11851381937378765</v>
+        <v>-1.2285031565268606E-2</v>
       </c>
       <c r="L42">
         <f t="shared" si="14"/>
-        <v>3.5502958579881656</v>
+        <v>0.19723865877712032</v>
       </c>
       <c r="M42">
         <f t="shared" si="15"/>
-        <v>0.62638721035477296</v>
+        <v>2.2125398621239477E-3</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="10" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C43" s="10">
-        <v>1</v>
-      </c>
-      <c r="D43" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="E43" s="10">
-        <v>13.6</v>
+        <v>26.8</v>
       </c>
       <c r="F43">
         <f t="shared" si="8"/>
-        <v>0.13600000000000001</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="G43">
         <f t="shared" si="9"/>
-        <v>1.4528608000000002E-2</v>
+        <v>5.6417752000000009E-2</v>
       </c>
       <c r="H43">
         <f t="shared" si="10"/>
-        <v>3.4067127816728025E-3</v>
+        <v>1.3229008371046029E-2</v>
       </c>
       <c r="I43">
         <f t="shared" si="11"/>
-        <v>1.9723865877712033E-3</v>
+        <v>3.9447731755424065E-3</v>
       </c>
       <c r="J43">
         <f t="shared" si="12"/>
-        <v>-6.2285110035911835</v>
+        <v>-5.5353638230312381</v>
       </c>
       <c r="K43">
         <f t="shared" si="13"/>
-        <v>-1.2285031565268606E-2</v>
+        <v>-2.1835754725961491E-2</v>
       </c>
       <c r="L43">
         <f t="shared" si="14"/>
-        <v>0.19723865877712032</v>
+        <v>0.39447731755424065</v>
       </c>
       <c r="M43">
         <f t="shared" si="15"/>
-        <v>1.7033563908364013E-3</v>
+        <v>6.6145041855230147E-3</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="10" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>217</v>
+        <v>26</v>
       </c>
       <c r="C44" s="10">
         <v>3</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>260</v>
+        <v>181</v>
       </c>
       <c r="E44" s="10">
-        <v>76.5</v>
+        <v>30.9</v>
       </c>
       <c r="F44">
         <f t="shared" si="8"/>
-        <v>0.76500000000000001</v>
+        <v>0.309</v>
       </c>
       <c r="G44">
         <f t="shared" si="9"/>
-        <v>0.45969423749999999</v>
+        <v>7.5000325499999992E-2</v>
       </c>
       <c r="H44">
         <f t="shared" si="10"/>
-        <v>0.10779052160761601</v>
+        <v>1.7586307477665486E-2</v>
       </c>
       <c r="I44">
         <f t="shared" si="11"/>
@@ -39360,263 +39505,263 @@
       </c>
       <c r="M44">
         <f t="shared" si="15"/>
-        <v>5.3895260803808007E-2</v>
+        <v>8.793153738832743E-3</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="10" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C45" s="10">
-        <v>1</v>
-      </c>
-      <c r="D45" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="E45" s="10">
-        <v>15.5</v>
+        <v>46.1</v>
       </c>
       <c r="F45">
         <f t="shared" si="8"/>
-        <v>0.155</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="G45">
         <f t="shared" si="9"/>
-        <v>1.88716375E-2</v>
+        <v>0.1669352455</v>
       </c>
       <c r="H45">
         <f t="shared" si="10"/>
-        <v>4.4250797242478953E-3</v>
+        <v>3.914349086688395E-2</v>
       </c>
       <c r="I45">
         <f t="shared" si="11"/>
-        <v>1.9723865877712033E-3</v>
+        <v>7.889546351084813E-3</v>
       </c>
       <c r="J45">
         <f t="shared" si="12"/>
-        <v>-6.2285110035911835</v>
+        <v>-4.8422166424712927</v>
       </c>
       <c r="K45">
         <f t="shared" si="13"/>
-        <v>-1.2285031565268606E-2</v>
+        <v>-3.820289264277154E-2</v>
       </c>
       <c r="L45">
         <f t="shared" si="14"/>
-        <v>0.19723865877712032</v>
+        <v>0.78895463510848129</v>
       </c>
       <c r="M45">
         <f t="shared" si="15"/>
-        <v>2.2125398621239477E-3</v>
+        <v>1.9571745433441975E-2</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="10" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>247</v>
+        <v>113</v>
       </c>
       <c r="C46" s="10">
-        <v>2</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>258</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D46" s="10"/>
       <c r="E46" s="10">
-        <v>26.8</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="F46">
         <f t="shared" si="8"/>
-        <v>0.26800000000000002</v>
+        <v>0.184</v>
       </c>
       <c r="G46">
         <f t="shared" si="9"/>
-        <v>5.6417752000000009E-2</v>
+        <v>2.6593887999999996E-2</v>
       </c>
       <c r="H46">
         <f t="shared" si="10"/>
-        <v>1.3229008371046029E-2</v>
+        <v>6.235816821816305E-3</v>
       </c>
       <c r="I46">
         <f t="shared" si="11"/>
-        <v>3.9447731755424065E-3</v>
+        <v>1.9723865877712033E-3</v>
       </c>
       <c r="J46">
         <f t="shared" si="12"/>
-        <v>-5.5353638230312381</v>
+        <v>-6.2285110035911835</v>
       </c>
       <c r="K46">
         <f t="shared" si="13"/>
-        <v>-2.1835754725961491E-2</v>
+        <v>-1.2285031565268606E-2</v>
       </c>
       <c r="L46">
         <f t="shared" si="14"/>
-        <v>0.39447731755424065</v>
+        <v>0.19723865877712032</v>
       </c>
       <c r="M46">
         <f t="shared" si="15"/>
-        <v>6.6145041855230147E-3</v>
+        <v>3.1179084109081525E-3</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="10" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>26</v>
+        <v>261</v>
       </c>
       <c r="C47" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E47" s="10">
-        <v>30.9</v>
+        <v>10</v>
       </c>
       <c r="F47">
         <f t="shared" si="8"/>
-        <v>0.309</v>
+        <v>0.1</v>
       </c>
       <c r="G47">
         <f t="shared" si="9"/>
-        <v>7.5000325499999992E-2</v>
+        <v>7.8550000000000009E-3</v>
       </c>
       <c r="H47">
         <f t="shared" si="10"/>
-        <v>1.7586307477665486E-2</v>
+        <v>1.841864609468427E-3</v>
       </c>
       <c r="I47">
         <f t="shared" si="11"/>
-        <v>5.9171597633136093E-3</v>
+        <v>1.9723865877712033E-3</v>
       </c>
       <c r="J47">
         <f t="shared" si="12"/>
-        <v>-5.1298987149230735</v>
+        <v>-6.2285110035911835</v>
       </c>
       <c r="K47">
         <f t="shared" si="13"/>
-        <v>-3.0354430265817002E-2</v>
+        <v>-1.2285031565268606E-2</v>
       </c>
       <c r="L47">
         <f t="shared" si="14"/>
-        <v>0.59171597633136097</v>
+        <v>0.19723865877712032</v>
       </c>
       <c r="M47">
         <f t="shared" si="15"/>
-        <v>8.793153738832743E-3</v>
+        <v>9.2093230473421351E-4</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="10" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="C48" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E48" s="10">
-        <v>46.1</v>
+        <v>119.1</v>
       </c>
       <c r="F48">
         <f t="shared" si="8"/>
-        <v>0.46100000000000002</v>
+        <v>1.1909999999999998</v>
       </c>
       <c r="G48">
         <f t="shared" si="9"/>
-        <v>0.1669352455</v>
+        <v>1.1142168254999998</v>
       </c>
       <c r="H48">
         <f t="shared" si="10"/>
-        <v>3.914349086688395E-2</v>
+        <v>0.26126499531033831</v>
       </c>
       <c r="I48">
         <f t="shared" si="11"/>
-        <v>7.889546351084813E-3</v>
+        <v>1.9723865877712032E-2</v>
       </c>
       <c r="J48">
         <f t="shared" si="12"/>
-        <v>-4.8422166424712927</v>
+        <v>-3.9259259105971376</v>
       </c>
       <c r="K48">
         <f t="shared" si="13"/>
-        <v>-3.820289264277154E-2</v>
+        <v>-7.7434436106452412E-2</v>
       </c>
       <c r="L48">
         <f t="shared" si="14"/>
-        <v>0.78895463510848129</v>
+        <v>1.9723865877712032</v>
       </c>
       <c r="M48">
         <f t="shared" si="15"/>
-        <v>1.9571745433441975E-2</v>
+        <v>0.13063249765516916</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>113</v>
+        <v>262</v>
       </c>
       <c r="C49" s="10">
-        <v>1</v>
-      </c>
-      <c r="D49" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="E49" s="10">
-        <v>18.399999999999999</v>
+        <v>129.5</v>
       </c>
       <c r="F49">
         <f t="shared" si="8"/>
-        <v>0.184</v>
+        <v>1.2949999999999999</v>
       </c>
       <c r="G49">
         <f t="shared" si="9"/>
-        <v>2.6593887999999996E-2</v>
+        <v>1.3173031374999997</v>
       </c>
       <c r="H49">
         <f t="shared" si="10"/>
-        <v>6.235816821816305E-3</v>
+        <v>0.30888529966937878</v>
       </c>
       <c r="I49">
         <f t="shared" si="11"/>
-        <v>1.9723865877712033E-3</v>
+        <v>2.3668639053254437E-2</v>
       </c>
       <c r="J49">
         <f t="shared" si="12"/>
-        <v>-6.2285110035911835</v>
+        <v>-3.7436043538031827</v>
       </c>
       <c r="K49">
         <f t="shared" si="13"/>
-        <v>-1.2285031565268606E-2</v>
+        <v>-8.8606020208359351E-2</v>
       </c>
       <c r="L49">
         <f t="shared" si="14"/>
-        <v>0.19723865877712032</v>
+        <v>2.3668639053254439</v>
       </c>
       <c r="M49">
         <f t="shared" si="15"/>
-        <v>3.1179084109081525E-3</v>
+        <v>0.15444264983468939</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="10" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="C50" s="10">
         <v>1</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>179</v>
-      </c>
+      <c r="D50" s="10"/>
       <c r="E50" s="10">
         <v>10</v>
       </c>
@@ -39655,419 +39800,415 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="10" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="C51" s="10">
-        <v>10</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>258</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D51" s="10"/>
       <c r="E51" s="10">
-        <v>119.1</v>
+        <v>160.80000000000001</v>
       </c>
       <c r="F51">
         <f t="shared" si="8"/>
-        <v>1.1909999999999998</v>
+        <v>1.6080000000000001</v>
       </c>
       <c r="G51">
         <f t="shared" si="9"/>
-        <v>1.1142168254999998</v>
+        <v>2.0310390720000004</v>
       </c>
       <c r="H51">
         <f t="shared" si="10"/>
-        <v>0.26126499531033831</v>
+        <v>0.47624430135765711</v>
       </c>
       <c r="I51">
         <f t="shared" si="11"/>
-        <v>1.9723865877712032E-2</v>
+        <v>1.7751479289940829E-2</v>
       </c>
       <c r="J51">
         <f t="shared" si="12"/>
-        <v>-3.9259259105971376</v>
+        <v>-4.0312864262549635</v>
       </c>
       <c r="K51">
         <f t="shared" si="13"/>
-        <v>-7.7434436106452412E-2</v>
+        <v>-7.1561297507484564E-2</v>
       </c>
       <c r="L51">
         <f t="shared" si="14"/>
-        <v>1.9723865877712032</v>
+        <v>1.7751479289940828</v>
       </c>
       <c r="M51">
         <f t="shared" si="15"/>
-        <v>0.13063249765516916</v>
+        <v>0.23812215067882855</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="10" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>262</v>
+        <v>60</v>
       </c>
       <c r="C52" s="10">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E52" s="10">
-        <v>129.5</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="F52">
         <f t="shared" si="8"/>
-        <v>1.2949999999999999</v>
+        <v>0.38799999999999996</v>
       </c>
       <c r="G52">
         <f t="shared" si="9"/>
-        <v>1.3173031374999997</v>
+        <v>0.11825231199999996</v>
       </c>
       <c r="H52">
         <f t="shared" si="10"/>
-        <v>0.30888529966937878</v>
+        <v>2.7728166576781472E-2</v>
       </c>
       <c r="I52">
         <f t="shared" si="11"/>
-        <v>2.3668639053254437E-2</v>
+        <v>5.9171597633136093E-3</v>
       </c>
       <c r="J52">
         <f t="shared" si="12"/>
-        <v>-3.7436043538031827</v>
+        <v>-5.1298987149230735</v>
       </c>
       <c r="K52">
         <f t="shared" si="13"/>
-        <v>-8.8606020208359351E-2</v>
+        <v>-3.0354430265817002E-2</v>
       </c>
       <c r="L52">
         <f t="shared" si="14"/>
-        <v>2.3668639053254439</v>
+        <v>0.59171597633136097</v>
       </c>
       <c r="M52">
         <f t="shared" si="15"/>
-        <v>0.15444264983468939</v>
+        <v>1.3864083288390736E-2</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="10" t="s">
-        <v>12</v>
+        <v>263</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="C53" s="10">
-        <v>1</v>
-      </c>
-      <c r="D53" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="E53" s="10">
-        <v>10</v>
+        <v>33.6</v>
       </c>
       <c r="F53">
         <f t="shared" si="8"/>
-        <v>0.1</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="G53">
         <f t="shared" si="9"/>
-        <v>7.8550000000000009E-3</v>
+        <v>8.8679807999999999E-2</v>
       </c>
       <c r="H53">
         <f t="shared" si="10"/>
-        <v>1.841864609468427E-3</v>
+        <v>2.079391469505475E-2</v>
       </c>
       <c r="I53">
         <f t="shared" si="11"/>
-        <v>1.9723865877712033E-3</v>
+        <v>3.9447731755424065E-3</v>
       </c>
       <c r="J53">
         <f t="shared" si="12"/>
-        <v>-6.2285110035911835</v>
+        <v>-5.5353638230312381</v>
       </c>
       <c r="K53">
         <f t="shared" si="13"/>
-        <v>-1.2285031565268606E-2</v>
+        <v>-2.1835754725961491E-2</v>
       </c>
       <c r="L53">
         <f t="shared" si="14"/>
-        <v>0.19723865877712032</v>
+        <v>0.39447731755424065</v>
       </c>
       <c r="M53">
         <f t="shared" si="15"/>
-        <v>9.2093230473421351E-4</v>
+        <v>1.0396957347527375E-2</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="C54" s="10">
-        <v>9</v>
-      </c>
-      <c r="D54" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="E54" s="10">
-        <v>160.80000000000001</v>
+        <v>811.1</v>
       </c>
       <c r="F54">
         <f t="shared" si="8"/>
-        <v>1.6080000000000001</v>
+        <v>8.1110000000000007</v>
       </c>
       <c r="G54">
         <f t="shared" si="9"/>
-        <v>2.0310390720000004</v>
+        <v>51.676726145500005</v>
       </c>
       <c r="H54">
         <f t="shared" si="10"/>
-        <v>0.47624430135765711</v>
+        <v>12.11731801662485</v>
       </c>
       <c r="I54">
         <f t="shared" si="11"/>
-        <v>1.7751479289940829E-2</v>
+        <v>8.6785009861932938E-2</v>
       </c>
       <c r="J54">
         <f t="shared" si="12"/>
-        <v>-4.0312864262549635</v>
+        <v>-2.444321369672922</v>
       </c>
       <c r="K54">
         <f t="shared" si="13"/>
-        <v>-7.1561297507484564E-2</v>
+        <v>-0.21213045417279797</v>
       </c>
       <c r="L54">
         <f t="shared" si="14"/>
-        <v>1.7751479289940828</v>
+        <v>8.6785009861932938</v>
       </c>
       <c r="M54">
         <f t="shared" si="15"/>
-        <v>0.23812215067882855</v>
+        <v>6.058659008312425</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="10" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C55" s="10">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E55" s="10">
-        <v>38.799999999999997</v>
+        <v>1152.5</v>
       </c>
       <c r="F55">
         <f t="shared" si="8"/>
-        <v>0.38799999999999996</v>
+        <v>11.525</v>
       </c>
       <c r="G55">
         <f t="shared" si="9"/>
-        <v>0.11825231199999996</v>
+        <v>104.3345284375</v>
       </c>
       <c r="H55">
         <f t="shared" si="10"/>
-        <v>2.7728166576781472E-2</v>
+        <v>24.464681791802469</v>
       </c>
       <c r="I55">
         <f t="shared" si="11"/>
-        <v>5.9171597633136093E-3</v>
+        <v>6.5088757396449703E-2</v>
       </c>
       <c r="J55">
         <f t="shared" si="12"/>
-        <v>-5.1298987149230735</v>
+        <v>-2.7320034421247028</v>
       </c>
       <c r="K55">
         <f t="shared" si="13"/>
-        <v>-3.0354430265817002E-2</v>
+        <v>-0.1778227092507203</v>
       </c>
       <c r="L55">
         <f t="shared" si="14"/>
-        <v>0.59171597633136097</v>
+        <v>6.5088757396449708</v>
       </c>
       <c r="M55">
         <f t="shared" si="15"/>
-        <v>1.3864083288390736E-2</v>
+        <v>12.232340895901235</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="10" t="s">
-        <v>263</v>
+        <v>93</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="C56" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E56" s="10">
-        <v>33.6</v>
+        <v>21.3</v>
       </c>
       <c r="F56">
         <f t="shared" si="8"/>
-        <v>0.33600000000000002</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="G56">
         <f t="shared" si="9"/>
-        <v>8.8679807999999999E-2</v>
+        <v>3.5637349499999998E-2</v>
       </c>
       <c r="H56">
         <f t="shared" si="10"/>
-        <v>2.079391469505475E-2</v>
+        <v>8.3563555466973048E-3</v>
       </c>
       <c r="I56">
         <f t="shared" si="11"/>
-        <v>3.9447731755424065E-3</v>
+        <v>1.9723865877712033E-3</v>
       </c>
       <c r="J56">
         <f t="shared" si="12"/>
-        <v>-5.5353638230312381</v>
+        <v>-6.2285110035911835</v>
       </c>
       <c r="K56">
         <f t="shared" si="13"/>
-        <v>-2.1835754725961491E-2</v>
+        <v>-1.2285031565268606E-2</v>
       </c>
       <c r="L56">
         <f t="shared" si="14"/>
-        <v>0.39447731755424065</v>
+        <v>0.19723865877712032</v>
       </c>
       <c r="M56">
         <f t="shared" si="15"/>
-        <v>1.0396957347527375E-2</v>
+        <v>4.1781777733486524E-3</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="10" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="C57" s="10">
-        <v>44</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>179</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D57" s="10"/>
       <c r="E57" s="10">
-        <v>811.1</v>
+        <v>10.1</v>
       </c>
       <c r="F57">
         <f t="shared" si="8"/>
-        <v>8.1110000000000007</v>
+        <v>0.10099999999999999</v>
       </c>
       <c r="G57">
         <f t="shared" si="9"/>
-        <v>51.676726145500005</v>
+        <v>8.0128854999999988E-3</v>
       </c>
       <c r="H57">
         <f t="shared" si="10"/>
-        <v>12.11731801662485</v>
+        <v>1.8788860881187419E-3</v>
       </c>
       <c r="I57">
         <f t="shared" si="11"/>
-        <v>8.6785009861932938E-2</v>
+        <v>1.9723865877712033E-3</v>
       </c>
       <c r="J57">
         <f t="shared" si="12"/>
-        <v>-2.444321369672922</v>
+        <v>-6.2285110035911835</v>
       </c>
       <c r="K57">
         <f t="shared" si="13"/>
-        <v>-0.21213045417279797</v>
+        <v>-1.2285031565268606E-2</v>
       </c>
       <c r="L57">
         <f t="shared" si="14"/>
-        <v>8.6785009861932938</v>
+        <v>0.19723865877712032</v>
       </c>
       <c r="M57">
         <f t="shared" si="15"/>
-        <v>6.058659008312425</v>
+        <v>9.3944304405937094E-4</v>
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="A58" s="10"/>
       <c r="B58" s="13" t="s">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="C58" s="10">
-        <v>33</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>258</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D58" s="10"/>
       <c r="E58" s="10">
-        <v>1152.5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F58">
         <f t="shared" si="8"/>
-        <v>11.525</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="G58">
         <f t="shared" si="9"/>
-        <v>104.3345284375</v>
+        <v>8.1723419999999991E-3</v>
       </c>
       <c r="H58">
         <f t="shared" si="10"/>
-        <v>24.464681791802469</v>
+        <v>1.9162759396909508E-3</v>
       </c>
       <c r="I58">
         <f t="shared" si="11"/>
-        <v>6.5088757396449703E-2</v>
+        <v>1.9723865877712033E-3</v>
       </c>
       <c r="J58">
         <f t="shared" si="12"/>
-        <v>-2.7320034421247028</v>
+        <v>-6.2285110035911835</v>
       </c>
       <c r="K58">
         <f t="shared" si="13"/>
-        <v>-0.1778227092507203</v>
+        <v>-1.2285031565268606E-2</v>
       </c>
       <c r="L58">
         <f t="shared" si="14"/>
-        <v>6.5088757396449708</v>
+        <v>0.19723865877712032</v>
       </c>
       <c r="M58">
         <f t="shared" si="15"/>
-        <v>12.232340895901235</v>
+        <v>9.5813796984547538E-4</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="10" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="C59" s="10">
         <v>1</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>258</v>
+        <v>179</v>
       </c>
       <c r="E59" s="10">
-        <v>21.3</v>
+        <v>50.8</v>
       </c>
       <c r="F59">
         <f t="shared" si="8"/>
-        <v>0.21299999999999999</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="G59">
         <f t="shared" si="9"/>
-        <v>3.5637349499999998E-2</v>
+        <v>0.202709272</v>
       </c>
       <c r="H59">
         <f t="shared" si="10"/>
-        <v>8.3563555466973048E-3</v>
+        <v>4.7531894857786007E-2</v>
       </c>
       <c r="I59">
         <f t="shared" si="11"/>
@@ -40087,128 +40228,132 @@
       </c>
       <c r="M59">
         <f t="shared" si="15"/>
-        <v>4.1781777733486524E-3</v>
+        <v>2.3765947428893004E-2</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="10" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>248</v>
+        <v>121</v>
       </c>
       <c r="C60" s="10">
-        <v>1</v>
-      </c>
-      <c r="D60" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>258</v>
+      </c>
       <c r="E60" s="10">
-        <v>10.1</v>
+        <v>135</v>
       </c>
       <c r="F60">
         <f t="shared" si="8"/>
-        <v>0.10099999999999999</v>
+        <v>1.35</v>
       </c>
       <c r="G60">
         <f t="shared" si="9"/>
-        <v>8.0128854999999988E-3</v>
+        <v>1.4315737500000001</v>
       </c>
       <c r="H60">
         <f t="shared" si="10"/>
-        <v>1.8788860881187419E-3</v>
+        <v>0.33567982507562083</v>
       </c>
       <c r="I60">
         <f t="shared" si="11"/>
-        <v>1.9723865877712033E-3</v>
+        <v>9.8619329388560158E-3</v>
       </c>
       <c r="J60">
         <f t="shared" si="12"/>
-        <v>-6.2285110035911835</v>
+        <v>-4.619073091157083</v>
       </c>
       <c r="K60">
         <f t="shared" si="13"/>
-        <v>-1.2285031565268606E-2</v>
+        <v>-4.5552989064665511E-2</v>
       </c>
       <c r="L60">
         <f t="shared" si="14"/>
-        <v>0.19723865877712032</v>
+        <v>0.98619329388560162</v>
       </c>
       <c r="M60">
         <f t="shared" si="15"/>
-        <v>9.3944304405937094E-4</v>
+        <v>0.16783991253781042</v>
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="10"/>
+      <c r="A61" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="B61" s="13" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="C61" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="10">
-        <v>10.199999999999999</v>
+        <v>118.6</v>
       </c>
       <c r="F61">
         <f t="shared" si="8"/>
-        <v>0.10199999999999999</v>
+        <v>1.1859999999999999</v>
       </c>
       <c r="G61">
         <f t="shared" si="9"/>
-        <v>8.1723419999999991E-3</v>
+        <v>1.104881158</v>
       </c>
       <c r="H61">
         <f t="shared" si="10"/>
-        <v>1.9162759396909508E-3</v>
+        <v>0.25907593922198507</v>
       </c>
       <c r="I61">
         <f t="shared" si="11"/>
-        <v>1.9723865877712033E-3</v>
+        <v>1.5779092702169626E-2</v>
       </c>
       <c r="J61">
         <f t="shared" si="12"/>
-        <v>-6.2285110035911835</v>
+        <v>-4.1490694619113473</v>
       </c>
       <c r="K61">
         <f t="shared" si="13"/>
-        <v>-1.2285031565268606E-2</v>
+        <v>-6.5468551667240193E-2</v>
       </c>
       <c r="L61">
         <f t="shared" si="14"/>
-        <v>0.19723865877712032</v>
+        <v>1.5779092702169626</v>
       </c>
       <c r="M61">
         <f t="shared" si="15"/>
-        <v>9.5813796984547538E-4</v>
+        <v>0.12953796961099254</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="10" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="C62" s="10">
         <v>1</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c r="E62" s="10">
-        <v>50.8</v>
+        <v>10.4</v>
       </c>
       <c r="F62">
         <f t="shared" si="8"/>
-        <v>0.50800000000000001</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="G62">
         <f t="shared" si="9"/>
-        <v>0.202709272</v>
+        <v>8.4959680000000013E-3</v>
       </c>
       <c r="H62">
         <f t="shared" si="10"/>
-        <v>4.7531894857786007E-2</v>
+        <v>1.9921607616010507E-3</v>
       </c>
       <c r="I62">
         <f t="shared" si="11"/>
@@ -40228,604 +40373,459 @@
       </c>
       <c r="M62">
         <f t="shared" si="15"/>
-        <v>2.3765947428893004E-2</v>
+        <v>9.9608038080052533E-4</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="10" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C63" s="10">
-        <v>5</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>258</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D63" s="10"/>
       <c r="E63" s="10">
-        <v>135</v>
+        <v>58.8</v>
       </c>
       <c r="F63">
         <f t="shared" si="8"/>
-        <v>1.35</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="G63">
         <f t="shared" si="9"/>
-        <v>1.4315737500000001</v>
+        <v>0.27158191199999993</v>
       </c>
       <c r="H63">
         <f t="shared" si="10"/>
-        <v>0.33567982507562083</v>
+        <v>6.3681363753605155E-2</v>
       </c>
       <c r="I63">
         <f t="shared" si="11"/>
-        <v>9.8619329388560158E-3</v>
+        <v>1.9723865877712033E-3</v>
       </c>
       <c r="J63">
         <f t="shared" si="12"/>
-        <v>-4.619073091157083</v>
+        <v>-6.2285110035911835</v>
       </c>
       <c r="K63">
         <f t="shared" si="13"/>
-        <v>-4.5552989064665511E-2</v>
+        <v>-1.2285031565268606E-2</v>
       </c>
       <c r="L63">
         <f t="shared" si="14"/>
-        <v>0.98619329388560162</v>
+        <v>0.19723865877712032</v>
       </c>
       <c r="M63">
         <f t="shared" si="15"/>
-        <v>0.16783991253781042</v>
+        <v>3.1840681876802578E-2</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="C64" s="10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="10">
-        <v>118.6</v>
+        <v>60.7</v>
       </c>
       <c r="F64">
         <f t="shared" si="8"/>
-        <v>1.1859999999999999</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="G64">
         <f t="shared" si="9"/>
-        <v>1.104881158</v>
+        <v>0.28941668949999999</v>
       </c>
       <c r="H64">
         <f t="shared" si="10"/>
-        <v>0.25907593922198507</v>
+        <v>6.7863317349403235E-2</v>
       </c>
       <c r="I64">
         <f t="shared" si="11"/>
-        <v>1.5779092702169626E-2</v>
+        <v>7.889546351084813E-3</v>
       </c>
       <c r="J64">
         <f t="shared" si="12"/>
-        <v>-4.1490694619113473</v>
+        <v>-4.8422166424712927</v>
       </c>
       <c r="K64">
         <f t="shared" si="13"/>
-        <v>-6.5468551667240193E-2</v>
+        <v>-3.820289264277154E-2</v>
       </c>
       <c r="L64">
         <f t="shared" si="14"/>
-        <v>1.5779092702169626</v>
+        <v>0.78895463510848129</v>
       </c>
       <c r="M64">
         <f t="shared" si="15"/>
-        <v>0.12953796961099254</v>
+        <v>3.3931658674701617E-2</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="10" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c r="C65" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E65" s="10">
-        <v>10.4</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="F65">
         <f t="shared" si="8"/>
-        <v>0.10400000000000001</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="G65">
         <f t="shared" si="9"/>
-        <v>8.4959680000000013E-3</v>
+        <v>0.50146398550000004</v>
       </c>
       <c r="H65">
         <f t="shared" si="10"/>
-        <v>1.9921607616010507E-3</v>
+        <v>0.11758482085492532</v>
       </c>
       <c r="I65">
         <f t="shared" si="11"/>
-        <v>1.9723865877712033E-3</v>
+        <v>9.8619329388560158E-3</v>
       </c>
       <c r="J65">
         <f t="shared" si="12"/>
-        <v>-6.2285110035911835</v>
+        <v>-4.619073091157083</v>
       </c>
       <c r="K65">
         <f t="shared" si="13"/>
-        <v>-1.2285031565268606E-2</v>
+        <v>-4.5552989064665511E-2</v>
       </c>
       <c r="L65">
         <f t="shared" si="14"/>
-        <v>0.19723865877712032</v>
+        <v>0.98619329388560162</v>
       </c>
       <c r="M65">
         <f t="shared" si="15"/>
-        <v>9.9608038080052533E-4</v>
+        <v>5.8792410427462659E-2</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="10" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="C66" s="10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="10">
-        <v>58.8</v>
+        <v>123.5</v>
       </c>
       <c r="F66">
         <f t="shared" si="8"/>
-        <v>0.58799999999999997</v>
+        <v>1.2350000000000001</v>
       </c>
       <c r="G66">
         <f t="shared" si="9"/>
-        <v>0.27158191199999993</v>
+        <v>1.1980642375000001</v>
       </c>
       <c r="H66">
         <f t="shared" si="10"/>
-        <v>6.3681363753605155E-2</v>
+        <v>0.28092579489764813</v>
       </c>
       <c r="I66">
         <f t="shared" si="11"/>
-        <v>1.9723865877712033E-3</v>
+        <v>1.3806706114398421E-2</v>
       </c>
       <c r="J66">
         <f t="shared" si="12"/>
-        <v>-6.2285110035911835</v>
+        <v>-4.28260085453587</v>
       </c>
       <c r="K66">
         <f t="shared" si="13"/>
-        <v>-1.2285031565268606E-2</v>
+        <v>-5.91286114038483E-2</v>
       </c>
       <c r="L66">
         <f t="shared" si="14"/>
-        <v>0.19723865877712032</v>
+        <v>1.3806706114398422</v>
       </c>
       <c r="M66">
         <f t="shared" si="15"/>
-        <v>3.1840681876802578E-2</v>
+        <v>0.14046289744882406</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="10" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="C67" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="10">
-        <v>60.7</v>
+        <v>169.3</v>
       </c>
       <c r="F67">
         <f t="shared" si="8"/>
-        <v>0.60699999999999998</v>
+        <v>1.6930000000000001</v>
       </c>
       <c r="G67">
         <f t="shared" si="9"/>
-        <v>0.28941668949999999</v>
+        <v>2.2514385895000002</v>
       </c>
       <c r="H67">
         <f t="shared" si="10"/>
-        <v>6.7863317349403235E-2</v>
+        <v>0.52792425950242694</v>
       </c>
       <c r="I67">
         <f t="shared" si="11"/>
-        <v>7.889546351084813E-3</v>
+        <v>1.1834319526627219E-2</v>
       </c>
       <c r="J67">
         <f t="shared" si="12"/>
-        <v>-4.8422166424712927</v>
+        <v>-4.4367515343631281</v>
       </c>
       <c r="K67">
         <f t="shared" si="13"/>
-        <v>-3.820289264277154E-2</v>
+        <v>-5.2505935317906843E-2</v>
       </c>
       <c r="L67">
         <f t="shared" si="14"/>
-        <v>0.78895463510848129</v>
+        <v>1.1834319526627219</v>
       </c>
       <c r="M67">
         <f t="shared" si="15"/>
-        <v>3.3931658674701617E-2</v>
+        <v>0.26396212975121347</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="C68" s="10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D68" s="10" t="s">
         <v>258</v>
       </c>
       <c r="E68" s="10">
-        <v>79.900000000000006</v>
+        <v>669.8</v>
       </c>
       <c r="F68">
         <f t="shared" si="8"/>
-        <v>0.79900000000000004</v>
+        <v>6.6979999999999995</v>
       </c>
       <c r="G68">
         <f t="shared" si="9"/>
-        <v>0.50146398550000004</v>
+        <v>35.240046741999997</v>
       </c>
       <c r="H68">
         <f t="shared" si="10"/>
-        <v>0.11758482085492532</v>
+        <v>8.2631947714962344</v>
       </c>
       <c r="I68">
         <f t="shared" si="11"/>
-        <v>9.8619329388560158E-3</v>
+        <v>2.1696252465483234E-2</v>
       </c>
       <c r="J68">
         <f t="shared" si="12"/>
-        <v>-4.619073091157083</v>
+        <v>-3.8306157307928128</v>
       </c>
       <c r="K68">
         <f t="shared" si="13"/>
-        <v>-4.5552989064665511E-2</v>
+        <v>-8.3110005993532424E-2</v>
       </c>
       <c r="L68">
         <f t="shared" si="14"/>
-        <v>0.98619329388560162</v>
+        <v>2.1696252465483234</v>
       </c>
       <c r="M68">
         <f t="shared" si="15"/>
-        <v>5.8792410427462659E-2</v>
+        <v>4.1315973857481172</v>
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="A69" s="10"/>
       <c r="B69" s="13" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="C69" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="10">
-        <v>123.5</v>
+        <v>55.3</v>
       </c>
       <c r="F69">
         <f t="shared" si="8"/>
-        <v>1.2350000000000001</v>
+        <v>0.55299999999999994</v>
       </c>
       <c r="G69">
         <f t="shared" si="9"/>
-        <v>1.1980642375000001</v>
+        <v>0.24021296949999996</v>
       </c>
       <c r="H69">
         <f t="shared" si="10"/>
-        <v>0.28092579489764813</v>
+        <v>5.6325877435692999E-2</v>
       </c>
       <c r="I69">
         <f t="shared" si="11"/>
-        <v>1.3806706114398421E-2</v>
+        <v>1.9723865877712033E-3</v>
       </c>
       <c r="J69">
         <f t="shared" si="12"/>
-        <v>-4.28260085453587</v>
+        <v>-6.2285110035911835</v>
       </c>
       <c r="K69">
         <f t="shared" si="13"/>
-        <v>-5.91286114038483E-2</v>
+        <v>-1.2285031565268606E-2</v>
       </c>
       <c r="L69">
         <f t="shared" si="14"/>
-        <v>1.3806706114398422</v>
+        <v>0.19723865877712032</v>
       </c>
       <c r="M69">
         <f t="shared" si="15"/>
-        <v>0.14046289744882406</v>
+        <v>2.8162938717846499E-2</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="10" t="s">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="C70" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D70" s="10"/>
       <c r="E70" s="10">
-        <v>169.3</v>
+        <v>10</v>
       </c>
       <c r="F70">
         <f t="shared" si="8"/>
-        <v>1.6930000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G70">
         <f t="shared" si="9"/>
-        <v>2.2514385895000002</v>
+        <v>7.8550000000000009E-3</v>
       </c>
       <c r="H70">
         <f t="shared" si="10"/>
-        <v>0.52792425950242694</v>
+        <v>1.841864609468427E-3</v>
       </c>
       <c r="I70">
         <f t="shared" si="11"/>
-        <v>1.1834319526627219E-2</v>
+        <v>1.9723865877712033E-3</v>
       </c>
       <c r="J70">
         <f t="shared" si="12"/>
-        <v>-4.4367515343631281</v>
+        <v>-6.2285110035911835</v>
       </c>
       <c r="K70">
         <f t="shared" si="13"/>
-        <v>-5.2505935317906843E-2</v>
+        <v>-1.2285031565268606E-2</v>
       </c>
       <c r="L70">
         <f t="shared" si="14"/>
-        <v>1.1834319526627219</v>
+        <v>0.19723865877712032</v>
       </c>
       <c r="M70">
         <f t="shared" si="15"/>
-        <v>0.26396212975121347</v>
+        <v>9.2093230473421351E-4</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="10" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="C71" s="10">
-        <v>11</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>258</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D71" s="10"/>
       <c r="E71" s="10">
-        <v>669.8</v>
+        <v>15</v>
       </c>
       <c r="F71">
         <f t="shared" si="8"/>
-        <v>6.6979999999999995</v>
+        <v>0.15</v>
       </c>
       <c r="G71">
         <f t="shared" si="9"/>
-        <v>35.240046741999997</v>
+        <v>1.7673749999999998E-2</v>
       </c>
       <c r="H71">
         <f t="shared" si="10"/>
-        <v>8.2631947714962344</v>
+        <v>4.1441953713039596E-3</v>
       </c>
       <c r="I71">
         <f t="shared" si="11"/>
-        <v>2.1696252465483234E-2</v>
+        <v>1.9723865877712033E-3</v>
       </c>
       <c r="J71">
         <f t="shared" si="12"/>
-        <v>-3.8306157307928128</v>
+        <v>-6.2285110035911835</v>
       </c>
       <c r="K71">
         <f t="shared" si="13"/>
-        <v>-8.3110005993532424E-2</v>
+        <v>-1.2285031565268606E-2</v>
       </c>
       <c r="L71">
         <f t="shared" si="14"/>
-        <v>2.1696252465483234</v>
+        <v>0.19723865877712032</v>
       </c>
       <c r="M71">
         <f t="shared" si="15"/>
-        <v>4.1315973857481172</v>
+        <v>2.0720976856519798E-3</v>
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="10"/>
-      <c r="B72" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C72" s="10">
-        <v>1</v>
-      </c>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10">
-        <v>55.3</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="8"/>
-        <v>0.55299999999999994</v>
+      <c r="C72">
+        <v>507</v>
       </c>
       <c r="G72">
-        <f t="shared" si="9"/>
-        <v>0.24021296949999996</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="10"/>
-        <v>5.6325877435692999E-2</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="11"/>
-        <v>1.9723865877712033E-3</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="12"/>
-        <v>-6.2285110035911835</v>
+        <v>426.47</v>
+      </c>
+      <c r="J72" t="s">
+        <v>32</v>
       </c>
       <c r="K72">
-        <f t="shared" si="13"/>
-        <v>-1.2285031565268606E-2</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="14"/>
-        <v>0.19723865877712032</v>
-      </c>
-      <c r="M72">
-        <f t="shared" si="15"/>
-        <v>2.8162938717846499E-2</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="C73" s="10">
-        <v>1</v>
-      </c>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10">
-        <v>10</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="8"/>
-        <v>0.1</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="9"/>
-        <v>7.8550000000000009E-3</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="10"/>
-        <v>1.841864609468427E-3</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="11"/>
-        <v>1.9723865877712033E-3</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="12"/>
-        <v>-6.2285110035911835</v>
+      <c r="J73" t="s">
+        <v>33</v>
       </c>
       <c r="K73">
-        <f t="shared" si="13"/>
-        <v>-1.2285031565268606E-2</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="14"/>
-        <v>0.19723865877712032</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="15"/>
-        <v>9.2093230473421351E-4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C74" s="10">
-        <v>1</v>
-      </c>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10">
-        <v>15</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="8"/>
-        <v>0.15</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="9"/>
-        <v>1.7673749999999998E-2</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="10"/>
-        <v>4.1441953713039596E-3</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="11"/>
-        <v>1.9723865877712033E-3</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="12"/>
-        <v>-6.2285110035911835</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="13"/>
-        <v>-1.2285031565268606E-2</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="14"/>
-        <v>0.19723865877712032</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="15"/>
-        <v>2.0720976856519798E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="C75">
-        <v>507</v>
-      </c>
-      <c r="G75">
-        <v>426.47</v>
-      </c>
-      <c r="J75" t="s">
-        <v>32</v>
-      </c>
-      <c r="K75">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="J76" t="s">
-        <v>33</v>
-      </c>
-      <c r="K76">
         <f>3.51/LN(507)</f>
         <v>0.56353757711533836</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B4:M76"/>
+  <autoFilter ref="B1:M73"/>
   <sortState ref="A5:M74">
     <sortCondition ref="B5"/>
   </sortState>
